--- a/test/paper_20190703.xlsx
+++ b/test/paper_20190703.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295DEFC2-1C2F-4237-AD26-EEACC3175DB4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6C6077-6F17-464B-945F-52B24AFFAED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27225" yWindow="165" windowWidth="25245" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>分数</t>
   </si>
@@ -253,6 +253,42 @@
   </si>
   <si>
     <t>test04</t>
+  </si>
+  <si>
+    <t>test01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>test02</t>
+  </si>
+  <si>
+    <t>test03</t>
+  </si>
+  <si>
+    <t>child01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>child02</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>child03</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>填空</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>test05</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>test06</t>
+  </si>
+  <si>
+    <t>test07</t>
   </si>
 </sst>
 </file>
@@ -703,7 +739,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -780,6 +816,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1141,7 +1180,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1158,7 +1197,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -1167,7 +1206,7 @@
       <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="30" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="28"/>
@@ -1217,7 +1256,7 @@
       </c>
       <c r="D4" s="13">
         <f>SUM(D6:D387)</f>
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E4" s="14">
         <v>2018</v>
@@ -1259,7 +1298,7 @@
     <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19">
@@ -1270,54 +1309,80 @@
     </row>
     <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="23"/>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+      <c r="D8" s="19">
+        <v>4</v>
+      </c>
       <c r="E8" s="16"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
-      <c r="B9" s="19"/>
+      <c r="B9" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="D9" s="19">
+        <v>4</v>
+      </c>
       <c r="E9" s="16"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
+      <c r="B10" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
+      <c r="D10" s="19">
+        <v>9</v>
+      </c>
       <c r="E10" s="16"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="C11" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="D11" s="19"/>
-      <c r="E11" s="16"/>
+      <c r="E11" s="16">
+        <v>3</v>
+      </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="23"/>
       <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
+      <c r="C12" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="D12" s="19"/>
-      <c r="E12" s="16"/>
+      <c r="E12" s="16">
+        <v>3</v>
+      </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="21"/>
       <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="C13" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="D13" s="19"/>
-      <c r="E13" s="16"/>
+      <c r="E13" s="16">
+        <v>3</v>
+      </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="19"/>
+      <c r="A14" s="23" t="s">
+        <v>26</v>
+      </c>
       <c r="B14" s="19"/>
       <c r="C14" s="22"/>
       <c r="D14" s="19"/>
@@ -1326,25 +1391,37 @@
     </row>
     <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="C15" s="22"/>
-      <c r="D15" s="19"/>
+      <c r="D15" s="19">
+        <v>5</v>
+      </c>
       <c r="E15" s="16"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="C16" s="22"/>
-      <c r="D16" s="19"/>
+      <c r="D16" s="19">
+        <v>5</v>
+      </c>
       <c r="E16" s="16"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="16"/>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="C17" s="22"/>
-      <c r="D17" s="19"/>
+      <c r="D17" s="19">
+        <v>5</v>
+      </c>
       <c r="E17" s="16"/>
       <c r="F17" s="4"/>
     </row>

--- a/test/paper_20190703.xlsx
+++ b/test/paper_20190703.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6C6077-6F17-464B-945F-52B24AFFAED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974F841F-2EAE-4738-9313-3F2A03CBAE6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27225" yWindow="165" windowWidth="25245" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26880" yWindow="510" windowWidth="19680" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>分数</t>
   </si>
@@ -38,31 +38,6 @@
   </si>
   <si>
     <t>试题编号</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>应用类型</t>
-    </r>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -120,10 +95,6 @@
   </si>
   <si>
     <t>大题名</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>子题编号</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -290,6 +261,37 @@
   <si>
     <t>test07</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>应用类型</t>
+    </r>
+  </si>
+  <si>
+    <t>[MP1]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>子题编号</t>
+  </si>
 </sst>
 </file>
 
@@ -513,8 +515,9 @@
     <font>
       <sz val="11"/>
       <color rgb="FF606266"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="10">
@@ -811,16 +814,16 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="标题 1 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1180,7 +1183,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1198,16 +1201,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="26" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>4</v>
       </c>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
@@ -1221,35 +1224,37 @@
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
+    </row>
+    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="30" t="s">
+        <v>29</v>
+      </c>
       <c r="B4" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4">
         <v>60</v>
@@ -1262,18 +1267,18 @@
         <v>2018</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
+      <c r="C5" s="26" t="s">
+        <v>30</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>0</v>
@@ -1282,12 +1287,12 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -1298,7 +1303,7 @@
     <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19">
@@ -1310,7 +1315,7 @@
     <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="23"/>
       <c r="B8" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19">
@@ -1322,7 +1327,7 @@
     <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19">
@@ -1334,7 +1339,7 @@
     <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19">
@@ -1347,7 +1352,7 @@
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="16">
@@ -1359,7 +1364,7 @@
       <c r="A12" s="23"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="16">
@@ -1371,7 +1376,7 @@
       <c r="A13" s="21"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="16">
@@ -1381,7 +1386,7 @@
     </row>
     <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="22"/>
@@ -1392,7 +1397,7 @@
     <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
       <c r="B15" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="19">
@@ -1404,7 +1409,7 @@
     <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
       <c r="B16" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="19">
@@ -1416,7 +1421,7 @@
     <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="16"/>
       <c r="B17" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="19">
